--- a/www.eia.gov/electricity/monthly/xls/table_4_15.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_4_15.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="74">
-  <si>
-    <t>Table 4.15. Receipts and Quality of Coal by Rank Delivered for Electricity Generation: Electric Utilties by State, October 2016</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="74">
+  <si>
+    <t>Table 4.15. Receipts and Quality of Coal by Rank Delivered for Electricity Generation: Electric Utilties by State, November 2016</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -1311,13 +1311,13 @@
         <v>10</v>
       </c>
       <c r="B5" s="11">
-        <v>37</v>
-      </c>
-      <c r="C5" s="12">
-        <v>2.84</v>
-      </c>
-      <c r="D5" s="13">
-        <v>7.7</v>
+        <v>0</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="E5" s="11">
         <v>0</v>
@@ -1439,13 +1439,13 @@
         <v>15</v>
       </c>
       <c r="B9" s="15">
-        <v>37</v>
-      </c>
-      <c r="C9" s="16">
-        <v>2.84</v>
-      </c>
-      <c r="D9" s="17">
-        <v>7.7</v>
+        <v>0</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="E9" s="15">
         <v>0</v>
@@ -1663,22 +1663,22 @@
         <v>22</v>
       </c>
       <c r="B16" s="11">
-        <v>3241</v>
+        <v>3054</v>
       </c>
       <c r="C16" s="12">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="D16" s="13">
         <v>8.6</v>
       </c>
       <c r="E16" s="11">
-        <v>3732</v>
+        <v>3697</v>
       </c>
       <c r="F16" s="12">
         <v>0.26</v>
       </c>
       <c r="G16" s="13">
-        <v>4.9000000000000004</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H16" s="11">
         <v>0</v>
@@ -1695,22 +1695,22 @@
         <v>23</v>
       </c>
       <c r="B17" s="15">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="C17" s="16">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="D17" s="17">
-        <v>11.8</v>
+        <v>12.7</v>
       </c>
       <c r="E17" s="15">
-        <v>282</v>
+        <v>412</v>
       </c>
       <c r="F17" s="16">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G17" s="17">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H17" s="15">
         <v>0</v>
@@ -1727,22 +1727,22 @@
         <v>24</v>
       </c>
       <c r="B18" s="15">
-        <v>2155</v>
+        <v>2099</v>
       </c>
       <c r="C18" s="16">
-        <v>2.71</v>
+        <v>2.74</v>
       </c>
       <c r="D18" s="17">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="E18" s="15">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="F18" s="16">
         <v>0.23</v>
       </c>
       <c r="G18" s="17">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="H18" s="15">
         <v>0</v>
@@ -1759,22 +1759,22 @@
         <v>25</v>
       </c>
       <c r="B19" s="15">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="C19" s="16">
-        <v>2.68</v>
+        <v>2.67</v>
       </c>
       <c r="D19" s="17">
         <v>7.6</v>
       </c>
       <c r="E19" s="15">
-        <v>1728</v>
+        <v>1487</v>
       </c>
       <c r="F19" s="16">
         <v>0.28000000000000003</v>
       </c>
       <c r="G19" s="17">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H19" s="15">
         <v>0</v>
@@ -1791,13 +1791,13 @@
         <v>26</v>
       </c>
       <c r="B20" s="15">
-        <v>645</v>
+        <v>589</v>
       </c>
       <c r="C20" s="16">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="D20" s="17">
-        <v>8.6999999999999993</v>
+        <v>8.5</v>
       </c>
       <c r="E20" s="15">
         <v>0</v>
@@ -1823,22 +1823,22 @@
         <v>27</v>
       </c>
       <c r="B21" s="15">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="C21" s="16">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="D21" s="17">
         <v>7.8</v>
       </c>
       <c r="E21" s="15">
-        <v>1618</v>
+        <v>1681</v>
       </c>
       <c r="F21" s="16">
         <v>0.26</v>
       </c>
       <c r="G21" s="17">
-        <v>5.0999999999999996</v>
+        <v>5.3</v>
       </c>
       <c r="H21" s="15">
         <v>0</v>
@@ -1858,28 +1858,28 @@
         <v>15</v>
       </c>
       <c r="C22" s="12">
-        <v>3.03</v>
+        <v>3.08</v>
       </c>
       <c r="D22" s="13">
         <v>12.6</v>
       </c>
       <c r="E22" s="11">
-        <v>8551</v>
+        <v>7912</v>
       </c>
       <c r="F22" s="12">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G22" s="13">
         <v>5.0999999999999996</v>
       </c>
       <c r="H22" s="11">
-        <v>1671</v>
+        <v>1755</v>
       </c>
       <c r="I22" s="12">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="J22" s="13">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1896,10 +1896,10 @@
         <v>11</v>
       </c>
       <c r="E23" s="15">
-        <v>1734</v>
+        <v>1291</v>
       </c>
       <c r="F23" s="16">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="G23" s="17">
         <v>4.9000000000000004</v>
@@ -1922,19 +1922,19 @@
         <v>15</v>
       </c>
       <c r="C24" s="16">
-        <v>3.03</v>
+        <v>3.08</v>
       </c>
       <c r="D24" s="17">
         <v>12.6</v>
       </c>
       <c r="E24" s="15">
-        <v>1476</v>
+        <v>1303</v>
       </c>
       <c r="F24" s="16">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="G24" s="17">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="H24" s="15">
         <v>0</v>
@@ -1960,13 +1960,13 @@
         <v>11</v>
       </c>
       <c r="E25" s="15">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="F25" s="16">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="G25" s="17">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="H25" s="15">
         <v>0</v>
@@ -1992,10 +1992,10 @@
         <v>11</v>
       </c>
       <c r="E26" s="15">
-        <v>2810</v>
+        <v>2713</v>
       </c>
       <c r="F26" s="16">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="G26" s="17">
         <v>4.8</v>
@@ -2024,10 +2024,10 @@
         <v>11</v>
       </c>
       <c r="E27" s="15">
-        <v>1045</v>
+        <v>1015</v>
       </c>
       <c r="F27" s="16">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G27" s="17">
         <v>5.3</v>
@@ -2056,22 +2056,22 @@
         <v>11</v>
       </c>
       <c r="E28" s="15">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F28" s="16">
         <v>0.34</v>
       </c>
       <c r="G28" s="17">
-        <v>5.0999999999999996</v>
+        <v>5.3</v>
       </c>
       <c r="H28" s="15">
-        <v>1671</v>
+        <v>1755</v>
       </c>
       <c r="I28" s="16">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="J28" s="17">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2088,13 +2088,13 @@
         <v>11</v>
       </c>
       <c r="E29" s="15">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="F29" s="16">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="G29" s="17">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="H29" s="15">
         <v>0</v>
@@ -2111,22 +2111,22 @@
         <v>36</v>
       </c>
       <c r="B30" s="11">
-        <v>5980</v>
+        <v>6019</v>
       </c>
       <c r="C30" s="12">
-        <v>2.2799999999999998</v>
+        <v>2.37</v>
       </c>
       <c r="D30" s="13">
-        <v>9.6999999999999993</v>
+        <v>10</v>
       </c>
       <c r="E30" s="11">
-        <v>890</v>
+        <v>843</v>
       </c>
       <c r="F30" s="12">
         <v>0.34</v>
       </c>
       <c r="G30" s="13">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H30" s="11">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>39</v>
       </c>
       <c r="B33" s="15">
-        <v>1535</v>
+        <v>1169</v>
       </c>
       <c r="C33" s="16">
-        <v>2.2599999999999998</v>
+        <v>2.38</v>
       </c>
       <c r="D33" s="17">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="E33" s="15">
         <v>0</v>
@@ -2239,22 +2239,22 @@
         <v>40</v>
       </c>
       <c r="B34" s="15">
-        <v>761</v>
+        <v>690</v>
       </c>
       <c r="C34" s="16">
-        <v>2.61</v>
+        <v>2.56</v>
       </c>
       <c r="D34" s="17">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="E34" s="15">
-        <v>890</v>
+        <v>843</v>
       </c>
       <c r="F34" s="16">
         <v>0.34</v>
       </c>
       <c r="G34" s="17">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H34" s="15">
         <v>0</v>
@@ -2303,13 +2303,13 @@
         <v>42</v>
       </c>
       <c r="B36" s="15">
-        <v>1163</v>
+        <v>1205</v>
       </c>
       <c r="C36" s="16">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="D36" s="17">
-        <v>9.9</v>
+        <v>9.5</v>
       </c>
       <c r="E36" s="15">
         <v>0</v>
@@ -2335,13 +2335,13 @@
         <v>43</v>
       </c>
       <c r="B37" s="15">
-        <v>259</v>
+        <v>632</v>
       </c>
       <c r="C37" s="16">
-        <v>1.32</v>
+        <v>1.76</v>
       </c>
       <c r="D37" s="17">
-        <v>9.9</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E37" s="15">
         <v>0</v>
@@ -2367,13 +2367,13 @@
         <v>44</v>
       </c>
       <c r="B38" s="15">
-        <v>534</v>
+        <v>447</v>
       </c>
       <c r="C38" s="16">
-        <v>1.04</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D38" s="17">
-        <v>10.6</v>
+        <v>15.5</v>
       </c>
       <c r="E38" s="15">
         <v>0</v>
@@ -2399,13 +2399,13 @@
         <v>45</v>
       </c>
       <c r="B39" s="15">
-        <v>1729</v>
+        <v>1877</v>
       </c>
       <c r="C39" s="16">
-        <v>2.99</v>
+        <v>3.04</v>
       </c>
       <c r="D39" s="17">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="E39" s="15">
         <v>0</v>
@@ -2431,16 +2431,16 @@
         <v>46</v>
       </c>
       <c r="B40" s="11">
-        <v>3393</v>
+        <v>3358</v>
       </c>
       <c r="C40" s="12">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="D40" s="13">
         <v>9</v>
       </c>
       <c r="E40" s="11">
-        <v>2702</v>
+        <v>2346</v>
       </c>
       <c r="F40" s="12">
         <v>0.27</v>
@@ -2463,19 +2463,19 @@
         <v>47</v>
       </c>
       <c r="B41" s="15">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C41" s="16">
-        <v>1.69</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="D41" s="17">
-        <v>10.3</v>
+        <v>10.9</v>
       </c>
       <c r="E41" s="15">
-        <v>1058</v>
+        <v>978</v>
       </c>
       <c r="F41" s="16">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="G41" s="17">
         <v>5.2</v>
@@ -2495,19 +2495,19 @@
         <v>48</v>
       </c>
       <c r="B42" s="15">
-        <v>2438</v>
+        <v>2400</v>
       </c>
       <c r="C42" s="16">
-        <v>3.03</v>
+        <v>3.07</v>
       </c>
       <c r="D42" s="17">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="E42" s="15">
-        <v>1145</v>
+        <v>960</v>
       </c>
       <c r="F42" s="16">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G42" s="17">
         <v>5.2</v>
@@ -2527,22 +2527,22 @@
         <v>49</v>
       </c>
       <c r="B43" s="15">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C43" s="16">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="D43" s="17">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="E43" s="15">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="F43" s="16">
-        <v>0.26</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G43" s="17">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="H43" s="15">
         <v>0</v>
@@ -2559,22 +2559,22 @@
         <v>50</v>
       </c>
       <c r="B44" s="15">
-        <v>452</v>
+        <v>487</v>
       </c>
       <c r="C44" s="16">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="D44" s="17">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
       <c r="E44" s="15">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="F44" s="16">
         <v>0.26</v>
       </c>
       <c r="G44" s="17">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H44" s="15">
         <v>0</v>
@@ -2594,28 +2594,28 @@
         <v>39</v>
       </c>
       <c r="C45" s="12">
-        <v>3.26</v>
+        <v>3.18</v>
       </c>
       <c r="D45" s="13">
-        <v>9.9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E45" s="11">
-        <v>4915</v>
+        <v>4308</v>
       </c>
       <c r="F45" s="12">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="G45" s="13">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="H45" s="11">
-        <v>851</v>
+        <v>645</v>
       </c>
       <c r="I45" s="12">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="J45" s="13">
-        <v>19.8</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2632,13 +2632,13 @@
         <v>11</v>
       </c>
       <c r="E46" s="15">
-        <v>1108</v>
+        <v>978</v>
       </c>
       <c r="F46" s="16">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="G46" s="17">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="H46" s="15">
         <v>0</v>
@@ -2658,28 +2658,28 @@
         <v>39</v>
       </c>
       <c r="C47" s="16">
-        <v>3.26</v>
+        <v>3.18</v>
       </c>
       <c r="D47" s="17">
-        <v>9.9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E47" s="15">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="F47" s="16">
         <v>0.24</v>
       </c>
       <c r="G47" s="17">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H47" s="15">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="I47" s="16">
-        <v>0.52</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J47" s="17">
-        <v>15.7</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2696,13 +2696,13 @@
         <v>11</v>
       </c>
       <c r="E48" s="15">
-        <v>1179</v>
+        <v>743</v>
       </c>
       <c r="F48" s="16">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="G48" s="17">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="H48" s="15">
         <v>0</v>
@@ -2728,22 +2728,22 @@
         <v>11</v>
       </c>
       <c r="E49" s="15">
-        <v>2485</v>
+        <v>2432</v>
       </c>
       <c r="F49" s="16">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="G49" s="17">
         <v>5.3</v>
       </c>
       <c r="H49" s="15">
-        <v>590</v>
+        <v>370</v>
       </c>
       <c r="I49" s="16">
-        <v>1.63</v>
+        <v>1.98</v>
       </c>
       <c r="J49" s="17">
-        <v>21.8</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2751,22 +2751,22 @@
         <v>56</v>
       </c>
       <c r="B50" s="11">
-        <v>2443</v>
+        <v>2423</v>
       </c>
       <c r="C50" s="12">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
       <c r="D50" s="13">
         <v>14.1</v>
       </c>
       <c r="E50" s="11">
-        <v>4845</v>
+        <v>4851</v>
       </c>
       <c r="F50" s="12">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="G50" s="13">
-        <v>9.3000000000000007</v>
+        <v>9.1</v>
       </c>
       <c r="H50" s="11">
         <v>0</v>
@@ -2783,22 +2783,22 @@
         <v>57</v>
       </c>
       <c r="B51" s="15">
-        <v>534</v>
+        <v>567</v>
       </c>
       <c r="C51" s="16">
-        <v>0.56999999999999995</v>
+        <v>0.62</v>
       </c>
       <c r="D51" s="17">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="E51" s="15">
-        <v>995</v>
+        <v>806</v>
       </c>
       <c r="F51" s="16">
-        <v>0.65</v>
+        <v>0.72</v>
       </c>
       <c r="G51" s="17">
-        <v>11.3</v>
+        <v>11.9</v>
       </c>
       <c r="H51" s="15">
         <v>0</v>
@@ -2815,22 +2815,22 @@
         <v>58</v>
       </c>
       <c r="B52" s="15">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="C52" s="16">
         <v>0.51</v>
       </c>
       <c r="D52" s="17">
-        <v>11.4</v>
+        <v>12.4</v>
       </c>
       <c r="E52" s="15">
-        <v>1288</v>
+        <v>1332</v>
       </c>
       <c r="F52" s="16">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="G52" s="17">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="H52" s="15">
         <v>0</v>
@@ -2911,13 +2911,13 @@
         <v>61</v>
       </c>
       <c r="B55" s="15">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="C55" s="16">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="D55" s="17">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="E55" s="15">
         <v>0</v>
@@ -2943,22 +2943,22 @@
         <v>62</v>
       </c>
       <c r="B56" s="15">
-        <v>578</v>
+        <v>515</v>
       </c>
       <c r="C56" s="16">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
       <c r="D56" s="17">
-        <v>22.5</v>
+        <v>21.9</v>
       </c>
       <c r="E56" s="15">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="F56" s="16">
         <v>0.73</v>
       </c>
       <c r="G56" s="17">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="H56" s="15">
         <v>0</v>
@@ -2975,19 +2975,19 @@
         <v>63</v>
       </c>
       <c r="B57" s="15">
-        <v>1092</v>
+        <v>1121</v>
       </c>
       <c r="C57" s="16">
-        <v>0.56999999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D57" s="17">
-        <v>12.7</v>
+        <v>13.1</v>
       </c>
       <c r="E57" s="15">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F57" s="16">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="G57" s="17">
         <v>8.6999999999999993</v>
@@ -3016,13 +3016,13 @@
         <v>11</v>
       </c>
       <c r="E58" s="15">
-        <v>1957</v>
+        <v>2081</v>
       </c>
       <c r="F58" s="16">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="G58" s="17">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="H58" s="15">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>11</v>
       </c>
       <c r="E59" s="11">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="F59" s="12">
         <v>0.24</v>
@@ -3112,7 +3112,7 @@
         <v>11</v>
       </c>
       <c r="E61" s="15">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="F61" s="16">
         <v>0.24</v>
@@ -3185,13 +3185,13 @@
         <v>11</v>
       </c>
       <c r="H63" s="11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I63" s="12">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="J63" s="13">
-        <v>10</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -3217,13 +3217,13 @@
         <v>11</v>
       </c>
       <c r="H64" s="15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I64" s="16">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="J64" s="17">
-        <v>10</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -3263,31 +3263,31 @@
         <v>72</v>
       </c>
       <c r="B66" s="11">
-        <v>15149</v>
+        <v>14908</v>
       </c>
       <c r="C66" s="12">
-        <v>2.2599999999999998</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D66" s="13">
-        <v>9.9</v>
+        <v>10.1</v>
       </c>
       <c r="E66" s="11">
-        <v>25732</v>
+        <v>24028</v>
       </c>
       <c r="F66" s="12">
         <v>0.32</v>
       </c>
       <c r="G66" s="13">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="H66" s="11">
-        <v>2531</v>
+        <v>2408</v>
       </c>
       <c r="I66" s="12">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="J66" s="13">
-        <v>13.1</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="144" customHeight="1" x14ac:dyDescent="0.25">
